--- a/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_4/bcw_train_80_test_20_depth_4_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_4/bcw_train_80_test_20_depth_4_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9176470588235294</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9577464788732394</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D3" t="n">
-        <v>0.951048951048951</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9323616115296429</v>
+        <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9343480049362403</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9390418397779577</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9387429907553746</v>
+        <v>0.92797783933518</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_4/bcw_train_80_test_20_depth_4_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_4/bcw_train_80_test_20_depth_4_report.xlsx
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.89</v>
       </c>
       <c r="E3" t="n">
         <v>42</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9298245614035088</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +518,10 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.92</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9368421052631579</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.93</v>
       </c>
       <c r="D6" t="n">
-        <v>0.92797783933518</v>
+        <v>0.93</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>
